--- a/LZX CASTLE — MOUSER BOM.xlsx
+++ b/LZX CASTLE — MOUSER BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felini\Desktop\LZX Castle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LZX\LZX CASTLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241DE30C-3606-4DF3-9362-70CF7BB8A996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B0EC92-6DEB-4A2F-8E1F-5667B8E2757E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="813" xr2:uid="{52A28D64-4030-425C-98FB-28687A3D5DE2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="186">
   <si>
     <t>Line Item</t>
   </si>
@@ -588,19 +588,16 @@
   </si>
   <si>
     <t>Substitute Part</t>
+  </si>
+  <si>
+    <t>Compiled LZX Castle MOUSER BOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000\ &quot;€&quot;;[Red]\-#,##0.000\ &quot;€&quot;"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +646,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -682,7 +686,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -722,15 +726,6 @@
       <left style="medium">
         <color rgb="FFDFE2E5"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDFE2E5"/>
-      </left>
       <right style="medium">
         <color rgb="FFDFE2E5"/>
       </right>
@@ -743,19 +738,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -769,11 +758,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill"/>
@@ -781,11 +765,14 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1110,11 +1097,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68DD8A3-43DF-4F48-BFDC-BD211A463894}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,1084 +1120,901 @@
     <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L2" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M2" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B3" s="7">
         <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2">
-        <v>499</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="17"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f t="shared" ref="A3:A10" si="0">A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="13">
-        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2">
+        <v>499</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>116</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="19" t="s">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="17"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B5" s="7">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="19" t="s">
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="17"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B6" s="7">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="19" t="s">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B7" s="7">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="19" t="s">
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="19" t="s">
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="19" t="s">
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B10" s="7">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="22" t="s">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M10" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="19" t="s">
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="9"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <f>A10+1</f>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <f>A11+1</f>
         <v>10</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="19" t="s">
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="9"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <f>A12+1</f>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <f>A13+1</f>
         <v>11</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="19" t="s">
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="9"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <f>A13+1</f>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <f>A14+1</f>
         <v>12</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B15" s="7">
         <v>76</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="19" t="s">
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <f>A14+1</f>
-        <v>13</v>
-      </c>
-      <c r="B15" s="13">
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <f>A15+1</f>
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G16" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="22" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M16" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="9"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <f>A15+1</f>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <f>A16+1</f>
         <v>14</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B17" s="7">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="19" t="s">
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <f>A16+1</f>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <f>A17+1</f>
         <v>15</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>2743001111</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="19" t="s">
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <f>A18+1</f>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <f>A19+1</f>
         <v>16</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B21" s="7">
         <v>44</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="14" t="s">
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="19" t="s">
+      <c r="J21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="O20" s="7"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="9"/>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <f>A20+1</f>
-        <v>17</v>
-      </c>
-      <c r="B21" s="13">
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <f>A21+1</f>
+        <v>17</v>
+      </c>
+      <c r="B22" s="7">
         <v>16</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="22" t="s">
+      <c r="J22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M22" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="9"/>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <f>A21+1</f>
-        <v>18</v>
-      </c>
-      <c r="B22" s="13">
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <f>A22+1</f>
+        <v>18</v>
+      </c>
+      <c r="B23" s="7">
         <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="9"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <f>A22+1</f>
-        <v>19</v>
-      </c>
-      <c r="B23" s="13">
-        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <f>A23+1</f>
+        <v>19</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="19" t="s">
+      <c r="J24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="9"/>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <f>A23+1</f>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <f>A24+1</f>
         <v>20</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B26" s="7">
         <v>7</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="5"/>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <f>A25+1</f>
-        <v>21</v>
-      </c>
-      <c r="B26" s="13">
-        <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>81</v>
+      <c r="F26" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
       <c r="I26" s="2" t="s">
         <v>75</v>
       </c>
@@ -2219,112 +2024,86 @@
       <c r="K26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="19" t="s">
+      <c r="L26" s="3"/>
+      <c r="M26" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <f>A26+1</f>
+        <v>21</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="O26" s="7"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="5"/>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
-        <f>A26+1</f>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <f>A27+1</f>
         <v>22</v>
       </c>
-      <c r="B28" s="13">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-    </row>
-    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
-        <f>A28+1</f>
-        <v>23</v>
-      </c>
-      <c r="B29" s="13">
+      <c r="B29" s="7">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -2338,190 +2117,145 @@
       <c r="K29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="19" t="s">
+      <c r="L29" s="3"/>
+      <c r="M29" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <f>A29+1</f>
+        <v>23</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-    </row>
-    <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-    </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
-        <f>A29+1</f>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <f>A30+1</f>
         <v>24</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B32" s="7">
         <v>29</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="19" t="s">
+      <c r="J32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="9"/>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-    </row>
-    <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
-        <f>A31+1</f>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <f>A32+1</f>
         <v>25</v>
       </c>
-      <c r="B33" s="13">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <f t="shared" ref="A34:A42" si="1">A33+1</f>
-        <v>26</v>
-      </c>
-      <c r="B34" s="13">
+      <c r="B34" s="7">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>119</v>
+      <c r="F34" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
         <v>79</v>
       </c>
@@ -2531,450 +2265,409 @@
       <c r="K34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="19" t="s">
+      <c r="L34" s="3"/>
+      <c r="M34" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <f t="shared" ref="A35:A43" si="1">A34+1</f>
+        <v>26</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+    </row>
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B36" s="7">
         <v>1</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="7"/>
-      <c r="M35" s="19" t="s">
+      <c r="J36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B37" s="7">
         <v>3</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="19" t="s">
+      <c r="J37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-    </row>
-    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+    </row>
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B38" s="7">
         <v>4</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2" t="s">
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="7"/>
-      <c r="M37" s="19" t="s">
+      <c r="J38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="O37" s="7"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-    </row>
-    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+    </row>
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39" s="1">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D39" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="14" t="s">
+      <c r="E39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="19" t="s">
+      <c r="J39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-    </row>
-    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+    </row>
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B40" s="1">
         <v>1</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D40" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2" t="s">
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="19" t="s">
+      <c r="J40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="O39" s="7"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-    </row>
-    <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+    </row>
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B41" s="1">
         <v>1</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D41" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="E41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2" t="s">
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="19" t="s">
+      <c r="J41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="O40" s="7"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-    </row>
-    <row r="41" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+    </row>
+    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B42" s="7">
         <v>1</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2" t="s">
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" s="7"/>
-      <c r="M41" s="19" t="s">
+      <c r="J42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="O41" s="7"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
-    </row>
-    <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+    </row>
+    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B43" s="7">
         <v>1</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H43" s="2">
         <v>1</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42" s="7"/>
-      <c r="M42" s="19" t="s">
+      <c r="J43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="O42" s="7"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{F3A4AC7C-433B-41DC-AE8E-535F7D3A235F}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{E357DA02-06A6-4A10-A308-CB7180B4DB04}"/>
-    <hyperlink ref="M4" r:id="rId3" xr:uid="{10985983-C212-4AFC-AAC7-A52F5673EBE0}"/>
-    <hyperlink ref="M5" r:id="rId4" xr:uid="{F6C12441-2900-43A9-AC08-19BE311B449D}"/>
-    <hyperlink ref="M6" r:id="rId5" xr:uid="{69F16D67-B4EB-4BA4-86D0-4EDE7618A2D7}"/>
-    <hyperlink ref="M7" r:id="rId6" xr:uid="{C3DFB288-AFB6-4107-9E54-C4B7575152E7}"/>
-    <hyperlink ref="M8" r:id="rId7" xr:uid="{B53A47E6-3F3A-40D2-A181-00F7DA08EA11}"/>
-    <hyperlink ref="M9" r:id="rId8" xr:uid="{D9E42FC8-2AE3-426B-9A49-670B1BBDEEBC}"/>
-    <hyperlink ref="M10" r:id="rId9" xr:uid="{18F45368-4BE5-4C16-B23E-10CB5CDDF85E}"/>
-    <hyperlink ref="M12" r:id="rId10" xr:uid="{2CA28E38-8969-4B89-BCD9-DA774D6931A7}"/>
-    <hyperlink ref="M13" r:id="rId11" xr:uid="{591912B3-9FDB-44E8-8DC2-06B38BAE295D}"/>
-    <hyperlink ref="M14" r:id="rId12" xr:uid="{57011700-AD47-44FC-8293-6DB8D8D5A9FF}"/>
-    <hyperlink ref="M15" r:id="rId13" xr:uid="{3807CCE7-CC6F-445E-BE19-DCFA0CFA0BC2}"/>
-    <hyperlink ref="M16" r:id="rId14" xr:uid="{12C084D6-FE17-4AD1-87E2-472DF7656527}"/>
-    <hyperlink ref="M18" r:id="rId15" xr:uid="{75AEF5D9-BF15-4FD2-BB50-B37FC06C34C5}"/>
-    <hyperlink ref="M20" r:id="rId16" xr:uid="{42703142-4B70-4B77-B25A-0898B887EE79}"/>
-    <hyperlink ref="M21" r:id="rId17" xr:uid="{9B506C9F-7E0F-4640-BB36-4F54B3736548}"/>
-    <hyperlink ref="M22" r:id="rId18" xr:uid="{201A874B-B42F-497F-9879-52CF60470D22}"/>
-    <hyperlink ref="M23" r:id="rId19" xr:uid="{39DDA1E1-FFDC-4F35-BBEE-E57DC171DBE6}"/>
-    <hyperlink ref="M25" r:id="rId20" xr:uid="{B345BE6C-3AE2-4860-8B20-898F384D9261}"/>
-    <hyperlink ref="M26" r:id="rId21" xr:uid="{930CADF5-0B01-4D4F-9FC2-1B54E7BAEB54}"/>
-    <hyperlink ref="M28" r:id="rId22" xr:uid="{50D7BBAD-3AB5-496C-A48F-F8CB576CAD08}"/>
-    <hyperlink ref="M29" r:id="rId23" xr:uid="{6617F952-22A4-4080-B82D-2C3EE447D203}"/>
-    <hyperlink ref="M31" r:id="rId24" xr:uid="{E2AC9BD1-810D-4D4B-B3A0-117FE15A1EA5}"/>
-    <hyperlink ref="M33" r:id="rId25" xr:uid="{62F57808-8E05-4032-8543-C57A8249B28A}"/>
-    <hyperlink ref="M34" r:id="rId26" xr:uid="{A24862DB-F5C7-4F3B-8C10-051E10145B3C}"/>
-    <hyperlink ref="M35" r:id="rId27" xr:uid="{701F627E-83B8-40F0-BD45-C852065C614C}"/>
-    <hyperlink ref="M36" r:id="rId28" xr:uid="{382757F6-94AB-40B7-A3D5-CFF9DF48424C}"/>
-    <hyperlink ref="M37" r:id="rId29" xr:uid="{B02E4B04-E063-41DA-BA46-94CC7574C795}"/>
-    <hyperlink ref="M38" r:id="rId30" xr:uid="{1AD4622D-4600-4B75-894D-F9EE76874C1C}"/>
-    <hyperlink ref="M39" r:id="rId31" xr:uid="{9D93C748-0709-44C2-9EC7-2D133BAF2B1D}"/>
-    <hyperlink ref="M40" r:id="rId32" xr:uid="{59481055-4C5A-41FA-A437-9BC093D89D8C}"/>
-    <hyperlink ref="M41" r:id="rId33" xr:uid="{FB10C5D8-F899-4717-A585-2786540EFD11}"/>
-    <hyperlink ref="M42" r:id="rId34" xr:uid="{E0225DFE-4E9E-4D43-A0FF-8FE9A6A7B144}"/>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{F3A4AC7C-433B-41DC-AE8E-535F7D3A235F}"/>
+    <hyperlink ref="M4" r:id="rId2" xr:uid="{E357DA02-06A6-4A10-A308-CB7180B4DB04}"/>
+    <hyperlink ref="M5" r:id="rId3" xr:uid="{10985983-C212-4AFC-AAC7-A52F5673EBE0}"/>
+    <hyperlink ref="M6" r:id="rId4" xr:uid="{F6C12441-2900-43A9-AC08-19BE311B449D}"/>
+    <hyperlink ref="M7" r:id="rId5" xr:uid="{69F16D67-B4EB-4BA4-86D0-4EDE7618A2D7}"/>
+    <hyperlink ref="M8" r:id="rId6" xr:uid="{C3DFB288-AFB6-4107-9E54-C4B7575152E7}"/>
+    <hyperlink ref="M9" r:id="rId7" xr:uid="{B53A47E6-3F3A-40D2-A181-00F7DA08EA11}"/>
+    <hyperlink ref="M10" r:id="rId8" xr:uid="{D9E42FC8-2AE3-426B-9A49-670B1BBDEEBC}"/>
+    <hyperlink ref="M11" r:id="rId9" xr:uid="{18F45368-4BE5-4C16-B23E-10CB5CDDF85E}"/>
+    <hyperlink ref="M13" r:id="rId10" xr:uid="{2CA28E38-8969-4B89-BCD9-DA774D6931A7}"/>
+    <hyperlink ref="M14" r:id="rId11" xr:uid="{591912B3-9FDB-44E8-8DC2-06B38BAE295D}"/>
+    <hyperlink ref="M15" r:id="rId12" xr:uid="{57011700-AD47-44FC-8293-6DB8D8D5A9FF}"/>
+    <hyperlink ref="M16" r:id="rId13" xr:uid="{3807CCE7-CC6F-445E-BE19-DCFA0CFA0BC2}"/>
+    <hyperlink ref="M17" r:id="rId14" xr:uid="{12C084D6-FE17-4AD1-87E2-472DF7656527}"/>
+    <hyperlink ref="M19" r:id="rId15" xr:uid="{75AEF5D9-BF15-4FD2-BB50-B37FC06C34C5}"/>
+    <hyperlink ref="M21" r:id="rId16" xr:uid="{42703142-4B70-4B77-B25A-0898B887EE79}"/>
+    <hyperlink ref="M22" r:id="rId17" xr:uid="{9B506C9F-7E0F-4640-BB36-4F54B3736548}"/>
+    <hyperlink ref="M23" r:id="rId18" xr:uid="{201A874B-B42F-497F-9879-52CF60470D22}"/>
+    <hyperlink ref="M24" r:id="rId19" xr:uid="{39DDA1E1-FFDC-4F35-BBEE-E57DC171DBE6}"/>
+    <hyperlink ref="M26" r:id="rId20" xr:uid="{B345BE6C-3AE2-4860-8B20-898F384D9261}"/>
+    <hyperlink ref="M27" r:id="rId21" xr:uid="{930CADF5-0B01-4D4F-9FC2-1B54E7BAEB54}"/>
+    <hyperlink ref="M29" r:id="rId22" xr:uid="{50D7BBAD-3AB5-496C-A48F-F8CB576CAD08}"/>
+    <hyperlink ref="M30" r:id="rId23" xr:uid="{6617F952-22A4-4080-B82D-2C3EE447D203}"/>
+    <hyperlink ref="M32" r:id="rId24" xr:uid="{E2AC9BD1-810D-4D4B-B3A0-117FE15A1EA5}"/>
+    <hyperlink ref="M34" r:id="rId25" xr:uid="{62F57808-8E05-4032-8543-C57A8249B28A}"/>
+    <hyperlink ref="M35" r:id="rId26" xr:uid="{A24862DB-F5C7-4F3B-8C10-051E10145B3C}"/>
+    <hyperlink ref="M36" r:id="rId27" xr:uid="{701F627E-83B8-40F0-BD45-C852065C614C}"/>
+    <hyperlink ref="M37" r:id="rId28" xr:uid="{382757F6-94AB-40B7-A3D5-CFF9DF48424C}"/>
+    <hyperlink ref="M38" r:id="rId29" xr:uid="{B02E4B04-E063-41DA-BA46-94CC7574C795}"/>
+    <hyperlink ref="M39" r:id="rId30" xr:uid="{1AD4622D-4600-4B75-894D-F9EE76874C1C}"/>
+    <hyperlink ref="M40" r:id="rId31" xr:uid="{9D93C748-0709-44C2-9EC7-2D133BAF2B1D}"/>
+    <hyperlink ref="M41" r:id="rId32" xr:uid="{59481055-4C5A-41FA-A437-9BC093D89D8C}"/>
+    <hyperlink ref="M42" r:id="rId33" xr:uid="{FB10C5D8-F899-4717-A585-2786540EFD11}"/>
+    <hyperlink ref="M43" r:id="rId34" xr:uid="{E0225DFE-4E9E-4D43-A0FF-8FE9A6A7B144}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId35"/>
 </worksheet>
 </file>